--- a/docs/formatos-carga/Formato carga matricula - posgrado.xlsx
+++ b/docs/formatos-carga/Formato carga matricula - posgrado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\repos\00043-DWeb-CuentasPorCobrar\docs\formatos-carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE524DB-99FA-479F-AE71-50A293FE0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B6B74-1569-4805-9730-07514D699E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>P</t>
   </si>
@@ -75,7 +75,16 @@
     <t>R</t>
   </si>
   <si>
-    <t>D20</t>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>M21</t>
   </si>
 </sst>
 </file>
@@ -926,11 +935,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -983,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>2020001327</v>
+        <v>2022029528</v>
       </c>
       <c r="C2" s="1">
         <v>2022</v>
@@ -994,7 +1001,79 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
       <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022032705</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2022032732</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2022032786</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
